--- a/assets/stages/maps/MapEditor/Room10.xlsx
+++ b/assets/stages/maps/MapEditor/Room10.xlsx
@@ -50,7 +50,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -60,6 +60,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -88,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -96,10 +102,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -483,7 +492,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="AK13" sqref="AK13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -594,34 +603,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1" t="n">
         <v>1</v>
@@ -630,25 +639,25 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>1</v>
@@ -657,31 +666,31 @@
         <v>1</v>
       </c>
       <c r="W2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF2" s="1" t="n">
         <v>1</v>
@@ -692,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="n">
         <v>-1</v>
@@ -752,34 +761,34 @@
         <v>-1</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -790,7 +799,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="n">
         <v>-1</v>
@@ -850,31 +859,31 @@
         <v>-1</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE4" s="1" t="n">
         <v>1</v>
@@ -888,7 +897,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -975,10 +984,10 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF5" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1073,10 +1082,10 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -1084,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1</v>
@@ -1171,10 +1180,10 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1182,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-1</v>
@@ -1206,10 +1215,10 @@
         <v>-1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>-1</v>
@@ -1280,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-1</v>
@@ -1378,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1390,10 +1399,10 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>-1</v>
@@ -1450,10 +1459,10 @@
         <v>-1</v>
       </c>
       <c r="Z10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB10" s="1" t="n">
         <v>-1</v>
@@ -1476,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1542,13 +1551,13 @@
         <v>-1</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>-1</v>
@@ -1563,10 +1572,10 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF11" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -1574,7 +1583,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1658,13 +1667,13 @@
         <v>-1</v>
       </c>
       <c r="AD12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF12" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -1672,10 +1681,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>-1</v>
@@ -1690,10 +1699,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>-1</v>
@@ -1747,22 +1756,22 @@
         <v>-1</v>
       </c>
       <c r="AA13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AE13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14">
@@ -1857,10 +1866,10 @@
         <v>-1</v>
       </c>
       <c r="AE14" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AF14" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15">
@@ -1871,16 +1880,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>-1</v>
@@ -1937,16 +1946,16 @@
         <v>-1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC15" s="1" t="n">
         <v>-1</v>
@@ -1966,19 +1975,19 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>-1</v>
@@ -2035,25 +2044,25 @@
         <v>-1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AE16" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" s="1" t="n">
         <v>1</v>
@@ -2064,94 +2073,94 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X17" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="Z17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF17" s="1" t="n">
         <v>1</v>
@@ -2177,58 +2186,58 @@
         <v>1</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X18" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1" t="n">
         <v>1</v>
@@ -2264,7 +2273,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 C6:Q7 C8:G16 G6:AE13 G15:X18 H7:P14 Q9:AF11 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AC13:AC15 AD15:AE15 AE14:AE15">
+  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD5 C6:AE6 C7:AD7 C8:I8 C9:AF12 C13:AD16 C17:D17 G7:AF8 G13:AF13 G15:AE18 J1:J3 J2:K2 K1:K4 S6:AF7 V5:AF5 Z12:AF14 AE11:AE15 AF11:AF14">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2283,7 +2292,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5:AE7"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2458,12 +2467,7 @@
       <c r="AB5" s="1" t="n"/>
       <c r="AC5" s="1" t="n"/>
       <c r="AD5" s="1" t="n"/>
-      <c r="AE5" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF5" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE5" s="1" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n"/>
@@ -2496,12 +2500,7 @@
       <c r="AB6" s="1" t="n"/>
       <c r="AC6" s="1" t="n"/>
       <c r="AD6" s="1" t="n"/>
-      <c r="AE6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF6" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE6" s="1" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n"/>
@@ -2534,12 +2533,7 @@
       <c r="AB7" s="1" t="n"/>
       <c r="AC7" s="1" t="n"/>
       <c r="AD7" s="1" t="n"/>
-      <c r="AE7" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF7" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="AE7" s="1" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n"/>
@@ -2572,10 +2566,8 @@
       <c r="AB8" s="1" t="n"/>
       <c r="AC8" s="1" t="n"/>
       <c r="AD8" s="1" t="n"/>
-      <c r="AE8" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF8" s="5" t="n"/>
+      <c r="AE8" s="1" t="n"/>
+      <c r="AF8" s="6" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n"/>
@@ -2608,9 +2600,7 @@
       <c r="AB9" s="1" t="n"/>
       <c r="AC9" s="1" t="n"/>
       <c r="AD9" s="1" t="n"/>
-      <c r="AE9" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE9" s="1" t="n"/>
       <c r="AF9" s="2" t="n"/>
     </row>
     <row r="10">
@@ -2644,9 +2634,7 @@
       <c r="AB10" s="1" t="n"/>
       <c r="AC10" s="1" t="n"/>
       <c r="AD10" s="1" t="n"/>
-      <c r="AE10" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AE10" s="1" t="n"/>
       <c r="AF10" s="2" t="n"/>
     </row>
     <row r="11">
@@ -2680,10 +2668,12 @@
       <c r="AB11" s="1" t="n"/>
       <c r="AC11" s="1" t="n"/>
       <c r="AD11" s="1" t="n"/>
-      <c r="AE11" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF11" s="2" t="n"/>
+      <c r="AE11" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF11" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n"/>
@@ -2716,10 +2706,12 @@
       <c r="AB12" s="1" t="n"/>
       <c r="AC12" s="1" t="n"/>
       <c r="AD12" s="1" t="n"/>
-      <c r="AE12" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF12" s="2" t="n"/>
+      <c r="AE12" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF12" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
@@ -2752,10 +2744,12 @@
       <c r="AB13" s="1" t="n"/>
       <c r="AC13" s="1" t="n"/>
       <c r="AD13" s="1" t="n"/>
-      <c r="AE13" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF13" s="2" t="n"/>
+      <c r="AE13" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF13" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n"/>
@@ -2788,15 +2782,19 @@
       <c r="AB14" s="1" t="n"/>
       <c r="AC14" s="1" t="n"/>
       <c r="AD14" s="1" t="n"/>
-      <c r="AE14" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF14" s="2" t="n"/>
+      <c r="AE14" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n"/>
+      <c r="C15" s="1" t="n">
+        <v>1.5</v>
+      </c>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -2822,9 +2820,7 @@
       <c r="Z15" s="1" t="n"/>
       <c r="AA15" s="1" t="n"/>
       <c r="AB15" s="1" t="n"/>
-      <c r="AC15" s="1" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="AC15" s="1" t="n"/>
       <c r="AD15" s="1" t="n"/>
       <c r="AE15" s="1" t="n">
         <v>2</v>
@@ -2834,10 +2830,12 @@
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
-      <c r="D16" s="4" t="n"/>
-      <c r="E16" s="4" t="n"/>
-      <c r="F16" s="4" t="n"/>
+      <c r="C16" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" s="5" t="n"/>
+      <c r="E16" s="5" t="n"/>
+      <c r="F16" s="5" t="n"/>
       <c r="G16" s="1" t="n"/>
       <c r="H16" s="1" t="n"/>
       <c r="I16" s="1" t="n"/>
@@ -2860,9 +2858,7 @@
       <c r="Z16" s="1" t="n"/>
       <c r="AA16" s="1" t="n"/>
       <c r="AB16" s="1" t="n"/>
-      <c r="AC16" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC16" s="1" t="n"/>
       <c r="AD16" s="1" t="n"/>
       <c r="AE16" s="1" t="n">
         <v>2</v>
@@ -2872,9 +2868,11 @@
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="n"/>
+      <c r="C17" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="D17" s="1" t="n"/>
-      <c r="E17" s="3" t="n"/>
+      <c r="E17" s="4" t="n"/>
       <c r="F17" s="1" t="n"/>
       <c r="G17" s="1" t="n"/>
       <c r="H17" s="1" t="n"/>
@@ -2898,9 +2896,7 @@
       <c r="Z17" s="1" t="n"/>
       <c r="AA17" s="1" t="n"/>
       <c r="AB17" s="1" t="n"/>
-      <c r="AC17" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AC17" s="1" t="n"/>
       <c r="AD17" s="1" t="n"/>
       <c r="AE17" s="1" t="n">
         <v>2</v>
@@ -2910,39 +2906,91 @@
     <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n"/>
-      <c r="D18" s="2" t="n"/>
-      <c r="E18" s="3" t="n"/>
-      <c r="F18" s="3" t="n"/>
-      <c r="G18" s="3" t="n"/>
-      <c r="H18" s="3" t="n"/>
-      <c r="I18" s="3" t="n"/>
-      <c r="J18" s="3" t="n"/>
-      <c r="K18" s="3" t="n"/>
-      <c r="L18" s="3" t="n"/>
-      <c r="M18" s="3" t="n"/>
-      <c r="N18" s="3" t="n"/>
-      <c r="O18" s="3" t="n"/>
-      <c r="P18" s="3" t="n"/>
-      <c r="Q18" s="3" t="n"/>
-      <c r="R18" s="3" t="n"/>
-      <c r="S18" s="3" t="n"/>
-      <c r="T18" s="3" t="n"/>
-      <c r="U18" s="3" t="n"/>
-      <c r="V18" s="3" t="n"/>
-      <c r="W18" s="3" t="n"/>
-      <c r="X18" s="3" t="n"/>
-      <c r="Y18" s="3" t="n"/>
-      <c r="Z18" s="3" t="n"/>
-      <c r="AA18" s="3" t="n"/>
-      <c r="AB18" s="3" t="n"/>
-      <c r="AC18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="1" t="n">
+      <c r="C18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="U18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AF18" s="2" t="n"/>

--- a/assets/stages/maps/MapEditor/Room10.xlsx
+++ b/assets/stages/maps/MapEditor/Room10.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3456" yWindow="3180" windowWidth="23040" windowHeight="14100" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BlocksandBackground" sheetId="1" state="visible" r:id="rId1"/>
@@ -492,8 +492,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -640,25 +640,25 @@
         <v>1</v>
       </c>
       <c r="N2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>1</v>
@@ -702,94 +702,94 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AC3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD3" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1" t="n">
         <v>1</v>
@@ -800,94 +800,94 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AC4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AD4" s="1" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1" t="n">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="n">
         <v>-1</v>
@@ -985,7 +985,7 @@
         <v>-1</v>
       </c>
       <c r="AE5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1" t="n">
         <v>1</v>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>-1</v>
@@ -1083,7 +1083,7 @@
         <v>-1</v>
       </c>
       <c r="AE6" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1" t="n">
         <v>1</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>-1</v>
@@ -1181,7 +1181,7 @@
         <v>-1</v>
       </c>
       <c r="AE7" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>-1</v>
@@ -1216,10 +1216,10 @@
         <v>-1</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="L8" s="1" t="n">
         <v>-1</v>
@@ -1279,7 +1279,7 @@
         <v>-1</v>
       </c>
       <c r="AE8" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1" t="n">
         <v>1</v>
@@ -1290,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="n">
         <v>-1</v>
@@ -1377,7 +1377,7 @@
         <v>-1</v>
       </c>
       <c r="AE9" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1" t="n">
         <v>1</v>
@@ -1388,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1" t="n">
         <v>-1</v>
@@ -1400,10 +1400,10 @@
         <v>-1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H10" s="1" t="n">
         <v>-1</v>
@@ -1475,7 +1475,7 @@
         <v>-1</v>
       </c>
       <c r="AE10" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF10" s="1" t="n">
         <v>1</v>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="n">
         <v>-1</v>
@@ -1552,13 +1552,13 @@
         <v>-1</v>
       </c>
       <c r="X11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Z11" s="1" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>-1</v>
@@ -1573,7 +1573,7 @@
         <v>-1</v>
       </c>
       <c r="AE11" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF11" s="1" t="n">
         <v>1</v>
@@ -1584,7 +1584,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="n">
         <v>-1</v>
@@ -1682,10 +1682,10 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>-1</v>
@@ -1700,10 +1700,10 @@
         <v>-1</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>-1</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1" t="n">
         <v>-1</v>
@@ -1878,91 +1878,91 @@
         <v>1</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD15" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE15" s="1" t="n">
         <v>1</v>
@@ -1988,79 +1988,79 @@
         <v>1</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="U16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="V16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="1" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AE16" s="1" t="n">
         <v>1</v>
@@ -2274,7 +2274,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:J4 B5:B16 B5:K5 C3:U5 C3:AF4 C4:AD5 C6:AE6 C7:AD7 C8:I8 C9:AF12 C13:AD16 C17:D17 G7:AF8 G13:AF13 G15:AE18 J1:J3 J2:K2 K1:K4 S6:AF7 V5:AF5 Z12:AF14 AE11:AE15 AF11:AF14">
+  <conditionalFormatting sqref="B2:J4 B3:AE3 B4:Y4 B5:B14 B5:K5 C3:U5 C6:G16 C6:Q7 G6:AE9 G10:AF13 G15:AE18 H7:P14 L3:AF4 Q9:AF9 Q13:Y14 S6:AF7 V5:AF5 Z12:AF14 AA8:AF8 AD9:AD12 AE7:AF8">
     <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
       <formula>-1</formula>
     </cfRule>
@@ -2292,8 +2292,8 @@
   </sheetPr>
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AG10" sqref="AG10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE11" sqref="AE11:AF11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="3.21875" defaultRowHeight="13.8"/>
@@ -2761,7 +2761,9 @@
       <c r="J14" s="1" t="n"/>
       <c r="K14" s="1" t="n"/>
       <c r="L14" s="1" t="n"/>
-      <c r="M14" s="1" t="n"/>
+      <c r="M14" s="1" t="n">
+        <v>1</v>
+      </c>
       <c r="N14" s="1" t="n"/>
       <c r="O14" s="1" t="n"/>
       <c r="P14" s="1" t="n"/>
@@ -2789,9 +2791,7 @@
     <row r="15">
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="n">
-        <v>1.5</v>
-      </c>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
@@ -2801,7 +2801,9 @@
       <c r="J15" s="1" t="n"/>
       <c r="K15" s="1" t="n"/>
       <c r="L15" s="1" t="n"/>
-      <c r="M15" s="1" t="n"/>
+      <c r="M15" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N15" s="1" t="n"/>
       <c r="O15" s="1" t="n"/>
       <c r="P15" s="1" t="n"/>
@@ -2827,9 +2829,7 @@
     <row r="16">
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C16" s="1" t="n"/>
       <c r="D16" s="5" t="n"/>
       <c r="E16" s="5" t="n"/>
       <c r="F16" s="5" t="n"/>
@@ -2839,7 +2839,9 @@
       <c r="J16" s="1" t="n"/>
       <c r="K16" s="1" t="n"/>
       <c r="L16" s="1" t="n"/>
-      <c r="M16" s="1" t="n"/>
+      <c r="M16" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N16" s="1" t="n"/>
       <c r="O16" s="1" t="n"/>
       <c r="P16" s="1" t="n"/>
@@ -2865,9 +2867,7 @@
     <row r="17">
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="2" t="n">
-        <v>2</v>
-      </c>
+      <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="4" t="n"/>
       <c r="F17" s="1" t="n"/>
@@ -2877,7 +2877,9 @@
       <c r="J17" s="1" t="n"/>
       <c r="K17" s="1" t="n"/>
       <c r="L17" s="1" t="n"/>
-      <c r="M17" s="1" t="n"/>
+      <c r="M17" s="1" t="n">
+        <v>2</v>
+      </c>
       <c r="N17" s="1" t="n"/>
       <c r="O17" s="1" t="n"/>
       <c r="P17" s="1" t="n"/>
@@ -2903,91 +2905,71 @@
     <row r="18">
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="2" t="n"/>
+      <c r="D18" s="2" t="n"/>
+      <c r="E18" s="4" t="n"/>
+      <c r="F18" s="4" t="n"/>
+      <c r="G18" s="4" t="n"/>
+      <c r="H18" s="4" t="n"/>
+      <c r="I18" s="4" t="n"/>
+      <c r="J18" s="4" t="n"/>
+      <c r="K18" s="4" t="n"/>
+      <c r="L18" s="4" t="n"/>
+      <c r="M18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="N18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="O18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="P18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="Q18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H18" s="2" t="n">
+      <c r="R18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I18" s="2" t="n">
+      <c r="S18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J18" s="2" t="n">
+      <c r="T18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="K18" s="2" t="n">
+      <c r="U18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="L18" s="2" t="n">
+      <c r="V18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="M18" s="2" t="n">
+      <c r="W18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="2" t="n">
+      <c r="X18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="O18" s="2" t="n">
+      <c r="Y18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P18" s="2" t="n">
+      <c r="Z18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q18" s="2" t="n">
+      <c r="AA18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="AB18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="S18" s="2" t="n">
+      <c r="AC18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="T18" s="2" t="n">
+      <c r="AD18" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="U18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="W18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD18" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE18" s="2" t="n">
+      <c r="AE18" s="1" t="n">
         <v>2</v>
       </c>
       <c r="AF18" s="2" t="n"/>

--- a/assets/stages/maps/MapEditor/Room10.xlsx
+++ b/assets/stages/maps/MapEditor/Room10.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="EventArea" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DramaArea" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SignArea" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="backgroundObjects" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -3014,4 +3015,22 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>